--- a/Presel_0040S_PERECHEN_1.xlsx
+++ b/Presel_0040S_PERECHEN_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="888" yWindow="0" windowWidth="22572" windowHeight="12852"/>
+    <workbookView xWindow="1776" yWindow="0" windowWidth="22572" windowHeight="12852"/>
   </bookViews>
   <sheets>
     <sheet name="Presel_0040S" sheetId="1" r:id="rId1"/>
@@ -165,12 +165,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,12 +203,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,7 +515,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,42 +549,42 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5">
         <v>11</v>
       </c>
     </row>
@@ -570,82 +609,82 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="11">
         <v>1</v>
       </c>
     </row>
@@ -782,5 +821,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>